--- a/biology/Botanique/Parc_Marcel-Paul/Parc_Marcel-Paul.xlsx
+++ b/biology/Botanique/Parc_Marcel-Paul/Parc_Marcel-Paul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le parc Marcel Paul est un parc public situé sur la commune de Valence, dans le département de la Drôme. D'une superficie de 3,7 ha[1], il se situe dans le quartier de Valensolles, bordé à l'ouest par l'avenue de Provence, au sud et à l'est par le boulevard de Crussol et au nord par la propriété du domaine de Valensolles qui est inscrite sur la liste des monuments historiques de la ville.
+Le parc Marcel Paul est un parc public situé sur la commune de Valence, dans le département de la Drôme. D'une superficie de 3,7 ha, il se situe dans le quartier de Valensolles, bordé à l'ouest par l'avenue de Provence, au sud et à l'est par le boulevard de Crussol et au nord par la propriété du domaine de Valensolles qui est inscrite sur la liste des monuments historiques de la ville.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé dans la partie ouest du quartier de Valensolles, non loin du port de plaisance de l'Épervière, ce parc paysager est parcouru d'une source naturelle canalisée en ruisseau. 
 Il possède une promenade bordée d'arbres et de pelouses, un terrain de pétanque et dispose d'aires de jeux pour les enfants. Ce parc très animé accueille régulièrement des courses d'orientation, des brocantes (le deuxième dimanche du mois) et des concours de pétanque, entre autres rassemblements festifs ou/et sportifs, ainsi que les concerts du Festival de Valence.
